--- a/templates/AutomationOrg/SYDATA-POtoPOAP Match_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/SYDATA-POtoPOAP Match_AutomationOrg.xlsx
@@ -196,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +215,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -441,7 +513,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -503,11 +575,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -545,8 +635,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/AutomationOrg/SYDATA-POtoPOAP Match_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/SYDATA-POtoPOAP Match_AutomationOrg.xlsx
@@ -196,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="69" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +215,114 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -513,7 +621,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -593,11 +701,38 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -647,8 +782,26 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="33" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
